--- a/premium/src/main/resources/hospital_cash_individual.xlsx
+++ b/premium/src/main/resources/hospital_cash_individual.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anil.juneja/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anil.juneja/Downloads/superstar/superstar/premium/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F50A80DC-9AE2-3643-96F9-3C76F5D31E18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AE7370-2872-DC45-A011-66DD07AD031E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{BEE94EA9-650B-9548-AF09-391EB2BD2042}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{BEE94EA9-650B-9548-AF09-391EB2BD2042}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
